--- a/pcb/production/qca7000_2024-04-05/JLCSMT_FOCCCI_CPL.xlsx
+++ b/pcb/production/qca7000_2024-04-05/JLCSMT_FOCCCI_CPL.xlsx
@@ -977,8 +977,8 @@
   </sheetPr>
   <dimension ref="A1:E214"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:C214"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C194" activeCellId="0" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1011,10 +1011,10 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>65.89</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>-118.37</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1028,10 +1028,10 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>63.41</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>-121.8625</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1045,10 +1045,10 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>74.88</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>-117.1</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1062,10 +1062,10 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>68.05</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>-121.55</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1079,10 +1079,10 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>71.1</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>-111.93</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1096,10 +1096,10 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>63.35</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>-126.3275</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1113,10 +1113,10 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>74.89</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>-120.98</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1130,10 +1130,10 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>68.07</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>-123.69</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1147,10 +1147,10 @@
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>58.26</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>-125.96</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1164,10 +1164,10 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>58.3</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>-121.86</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1181,10 +1181,10 @@
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>70.89</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>-127.4875</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1198,10 +1198,10 @@
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>58.26</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>-123.93</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1215,10 +1215,10 @@
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>69.51</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>-131.9</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1232,10 +1232,10 @@
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>65.88</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>-94.5</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1249,10 +1249,10 @@
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>137.515</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>-116.195</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1266,10 +1266,10 @@
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>99.04</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>-131.1375</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1283,10 +1283,10 @@
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>86.76</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>-131.78</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1300,10 +1300,10 @@
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>133.54</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>-112.52</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1317,10 +1317,10 @@
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>81.8825</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>-127.82</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1334,10 +1334,10 @@
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>80.53</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>-92.62</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1351,10 +1351,10 @@
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>80.63</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>-90.55</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1368,10 +1368,10 @@
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>103.59</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>-114.4175</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1385,10 +1385,10 @@
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>65.86</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>-88.46</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1402,10 +1402,10 @@
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>115.19</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>-110.65</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1419,10 +1419,10 @@
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>137.48</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>-120.09</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1436,10 +1436,10 @@
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>104.14</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>-132.66</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1453,10 +1453,10 @@
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>123.61</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>-90.58</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1470,10 +1470,10 @@
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>84.83</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>-127.1</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1487,10 +1487,10 @@
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>80.55</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>-131.96</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1504,10 +1504,10 @@
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>86.04</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>-110.21</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1521,10 +1521,10 @@
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>90.85</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>-128.9775</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1538,10 +1538,10 @@
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>79.73</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>-118</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1555,10 +1555,10 @@
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>79.46</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>-121.72</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1572,10 +1572,10 @@
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>104.27</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>-130.7</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1589,10 +1589,10 @@
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>86.45</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>-114.49</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1606,10 +1606,10 @@
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>99.88</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>-115.44</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1623,10 +1623,10 @@
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>78.66</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>-131.76</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1640,10 +1640,10 @@
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>84.78</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>-119.58</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1657,10 +1657,10 @@
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>78.49</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>-94.83</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -1674,10 +1674,10 @@
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>94.33</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>-113.96</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -1691,10 +1691,10 @@
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>101.792</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>-90.268</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -1708,10 +1708,10 @@
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>92.89</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>-131.66</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1725,10 +1725,10 @@
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>111.3</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>-110.69</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -1742,10 +1742,10 @@
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>99.79</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>-109.46</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -1759,10 +1759,10 @@
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>106.65</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>-114.3675</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -1776,10 +1776,10 @@
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>97.03</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>-131.1175</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -1793,10 +1793,10 @@
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>86.02</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>-112.36</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -1810,10 +1810,10 @@
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>99.3695</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>-113.4735</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -1827,10 +1827,10 @@
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>84.78</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>-121.54</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -1844,10 +1844,10 @@
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>84.78</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>-117.62</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -1861,10 +1861,10 @@
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>105.52</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>-125.23</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -1878,10 +1878,10 @@
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>-125.09</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -1895,10 +1895,10 @@
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>98.81</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>-127.96</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -1912,10 +1912,10 @@
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>121.35</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <v>-68.31</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -1929,10 +1929,10 @@
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>105.83</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>-122.2725</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -1946,10 +1946,10 @@
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>82.07</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>-86.08</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -1963,10 +1963,10 @@
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>72.46</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>-70.23</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -1980,10 +1980,10 @@
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>73.23</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>-86.47</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -1997,10 +1997,10 @@
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>86.22</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>-73.61</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -2014,10 +2014,10 @@
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>61.11</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>-76.99</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -2031,10 +2031,10 @@
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>65.84</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <v>-92.46</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -2048,10 +2048,10 @@
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>64.25</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <v>-78.15</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -2065,10 +2065,10 @@
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>61.16</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <v>-72.91</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -2082,10 +2082,10 @@
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>125.14</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>-81.88</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -2099,10 +2099,10 @@
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>128.11</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="1" t="n">
         <v>-79.21</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -2116,10 +2116,10 @@
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <v>127.72</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="1" t="n">
         <v>-85.6</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -2133,10 +2133,10 @@
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <v>95.44</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="1" t="n">
         <v>-95.67</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -2150,10 +2150,10 @@
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>123.61</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="1" t="n">
         <v>-86.51</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -2167,10 +2167,10 @@
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>136.717</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="1" t="n">
         <v>-71.98</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -2184,10 +2184,10 @@
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="1" t="n">
         <v>130.748</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="1" t="n">
         <v>-122.78</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -2201,10 +2201,10 @@
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="1" t="n">
         <v>115.88</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="1" t="n">
         <v>-127.71</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -2218,10 +2218,10 @@
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <v>138.732</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="1" t="n">
         <v>-63.699</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -2235,10 +2235,10 @@
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="1" t="n">
         <v>91.36</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="1" t="n">
         <v>-94.69</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -2252,10 +2252,10 @@
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="1" t="n">
         <v>88.71</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="1" t="n">
         <v>-87.99</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -2269,10 +2269,10 @@
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="1" t="n">
         <v>140.891</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="1" t="n">
         <v>-66.874</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -2286,10 +2286,10 @@
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <v>57.94</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="1" t="n">
         <v>-107.75</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -2303,10 +2303,10 @@
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="1" t="n">
         <v>65.89</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="1" t="n">
         <v>-80.28</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -2320,10 +2320,10 @@
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="1" t="n">
         <v>65.89</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="1" t="n">
         <v>-82.31</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -2337,10 +2337,10 @@
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="n">
         <v>65.91</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="1" t="n">
         <v>-84.35</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -2354,10 +2354,10 @@
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <v>65.87</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="1" t="n">
         <v>-86.44</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -2371,10 +2371,10 @@
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="1" t="n">
         <v>136.082</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" s="1" t="n">
         <v>-69.44</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -2388,10 +2388,10 @@
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="1" t="n">
         <v>133.161</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="1" t="n">
         <v>-101.952</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -2405,10 +2405,10 @@
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="1" t="n">
         <v>136.9495</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="1" t="n">
         <v>-101.952</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -2422,10 +2422,10 @@
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <v>71.84</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" s="1" t="n">
         <v>-120.81</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -2439,10 +2439,10 @@
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <v>71.04</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" s="1" t="n">
         <v>-114.93</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -2456,10 +2456,10 @@
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="n">
         <v>62.59</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" s="1" t="n">
         <v>-131.43</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -2473,10 +2473,10 @@
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="1" t="n">
         <v>64.96</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88" s="1" t="n">
         <v>-131.4275</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -2490,10 +2490,10 @@
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <v>74.09</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="1" t="n">
         <v>-131.92</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -2507,10 +2507,10 @@
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="1" t="n">
         <v>58.7175</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="1" t="n">
         <v>-128.18</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -2524,10 +2524,10 @@
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="1" t="n">
         <v>67.3</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="1" t="n">
         <v>-131.4475</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -2541,10 +2541,10 @@
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92" s="1" t="n">
         <v>85.95</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92" s="1" t="n">
         <v>-92.2675</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -2558,10 +2558,10 @@
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="1" t="n">
         <v>75.08</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" s="1" t="n">
         <v>-64.14</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -2575,10 +2575,10 @@
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="1" t="n">
         <v>57.7</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94" s="1" t="n">
         <v>-99.63</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -2592,10 +2592,10 @@
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="1" t="n">
         <v>133.424</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95" s="1" t="n">
         <v>-59.407</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -2609,10 +2609,10 @@
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96" s="1" t="n">
         <v>144.91</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" s="1" t="n">
         <v>-89.2</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -2626,10 +2626,10 @@
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="n">
         <v>58.01</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="1" t="n">
         <v>-103.51</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -2643,10 +2643,10 @@
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98" s="1" t="n">
         <v>84.325</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="1" t="n">
         <v>-60.53</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -2660,10 +2660,10 @@
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99" s="1" t="n">
         <v>56.81</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" s="1" t="n">
         <v>-90.67</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2677,10 +2677,10 @@
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100" s="1" t="n">
         <v>141.543</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100" s="1" t="n">
         <v>-104.492</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2694,10 +2694,10 @@
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101" s="1" t="n">
         <v>132.018</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="1" t="n">
         <v>-74.393</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2711,10 +2711,10 @@
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102" s="1" t="n">
         <v>146.623</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102" s="1" t="n">
         <v>-106.397</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -2728,10 +2728,10 @@
       <c r="A103" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103" s="1" t="n">
         <v>141.162</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="1" t="n">
         <v>-101.952</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -2745,10 +2745,10 @@
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104" s="1" t="n">
         <v>126.557</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="1" t="n">
         <v>-99.92</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -2762,10 +2762,10 @@
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105" s="1" t="n">
         <v>129.097</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" s="1" t="n">
         <v>-94.332</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -2779,10 +2779,10 @@
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106" s="1" t="n">
         <v>131.215</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" s="1" t="n">
         <v>-117.07</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -2796,10 +2796,10 @@
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107" s="1" t="n">
         <v>133.161</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="1" t="n">
         <v>-65.503</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -2813,10 +2813,10 @@
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108" s="1" t="n">
         <v>149.54</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108" s="1" t="n">
         <v>-96.625</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -2830,10 +2830,10 @@
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109" s="1" t="n">
         <v>69.93</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="1" t="n">
         <v>-117.81</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -2847,10 +2847,10 @@
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110" s="1" t="n">
         <v>77.78</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110" s="1" t="n">
         <v>-128.3175</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -2864,10 +2864,10 @@
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111" s="1" t="n">
         <v>74.43</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111" s="1" t="n">
         <v>-126.36</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -2881,10 +2881,10 @@
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112" s="1" t="n">
         <v>65.24</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112" s="1" t="n">
         <v>-122.93</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -2898,10 +2898,10 @@
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113" s="1" t="n">
         <v>76.76</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113" s="1" t="n">
         <v>-117.3</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -2915,10 +2915,10 @@
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114" s="1" t="n">
         <v>65.17</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114" s="1" t="n">
         <v>-126.52</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -2932,10 +2932,10 @@
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115" s="1" t="n">
         <v>76.76</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115" s="1" t="n">
         <v>-120.77</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -2949,10 +2949,10 @@
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116" s="1" t="n">
         <v>71.95</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116" s="1" t="n">
         <v>-123.83</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -2966,10 +2966,10 @@
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117" s="1" t="n">
         <v>73.84</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117" s="1" t="n">
         <v>-128.2675</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -2983,10 +2983,10 @@
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118" s="1" t="n">
         <v>89.86</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118" s="1" t="n">
         <v>-132.52</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -3000,10 +3000,10 @@
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119" s="1" t="n">
         <v>93.71</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119" s="1" t="n">
         <v>-110.88</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -3017,10 +3017,10 @@
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120" s="1" t="n">
         <v>72.04</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120" s="1" t="n">
         <v>-88.42</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -3034,10 +3034,10 @@
       <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121" s="1" t="n">
         <v>133.48</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121" s="1" t="n">
         <v>-82.63</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -3051,10 +3051,10 @@
       <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122" s="1" t="n">
         <v>66.5525</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122" s="1" t="n">
         <v>-104.49</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -3068,10 +3068,10 @@
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B123" s="1" t="n">
         <v>137.987</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123" s="1" t="n">
         <v>-96.491</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -3085,10 +3085,10 @@
       <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B124" s="1" t="n">
         <v>134.177</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124" s="1" t="n">
         <v>-94.459</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -3102,10 +3102,10 @@
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B125" s="1" t="n">
         <v>113.14</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125" s="1" t="n">
         <v>-73.7325</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -3119,10 +3119,10 @@
       <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126" s="1" t="n">
         <v>113.14</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126" s="1" t="n">
         <v>-77.7075</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -3136,10 +3136,10 @@
       <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127" s="1" t="n">
         <v>113.14</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127" s="1" t="n">
         <v>-81.7075</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -3153,10 +3153,10 @@
       <c r="A128" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B128" s="1" t="n">
         <v>109.666</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128" s="1" t="n">
         <v>-77.38</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -3170,10 +3170,10 @@
       <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B129" s="1" t="n">
         <v>109.412</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129" s="1" t="n">
         <v>-81.312</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -3187,10 +3187,10 @@
       <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B130" s="1" t="n">
         <v>134.2255</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130" s="1" t="n">
         <v>-97.7</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -3204,10 +3204,10 @@
       <c r="A131" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B131" s="1" t="n">
         <v>123.8115</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131" s="1" t="n">
         <v>-60.992</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -3221,10 +3221,10 @@
       <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B132" s="1" t="n">
         <v>109.666</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132" s="1" t="n">
         <v>-73.692</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -3238,10 +3238,10 @@
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B133" s="1" t="n">
         <v>114.9215</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133" s="1" t="n">
         <v>-60.484</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -3255,10 +3255,10 @@
       <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B134" s="1" t="n">
         <v>61.41</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C134" s="1" t="n">
         <v>-118.39</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -3272,10 +3272,10 @@
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B135" s="1" t="n">
         <v>61.41</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135" s="1" t="n">
         <v>-122.23</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -3289,10 +3289,10 @@
       <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B136" s="1" t="n">
         <v>102.93</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C136" s="1" t="n">
         <v>-123.09</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -3306,10 +3306,10 @@
       <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B137" s="1" t="n">
         <v>102.93</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C137" s="1" t="n">
         <v>-121.13</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -3323,10 +3323,10 @@
       <c r="A138" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B138" s="1" t="n">
         <v>87.76</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138" s="1" t="n">
         <v>-128.17</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -3340,10 +3340,10 @@
       <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B139" s="1" t="n">
         <v>94.94</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139" s="1" t="n">
         <v>-131.08</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -3357,10 +3357,10 @@
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B140" s="1" t="n">
         <v>107.3</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140" s="1" t="n">
         <v>-111.22</v>
       </c>
       <c r="D140" s="1" t="s">
@@ -3374,10 +3374,10 @@
       <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B141" s="1" t="n">
         <v>58.28</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141" s="1" t="n">
         <v>-117.9</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -3391,10 +3391,10 @@
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B142" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142" s="1" t="n">
         <v>-127.16</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -3408,10 +3408,10 @@
       <c r="A143" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B143" s="1" t="n">
         <v>89.53</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143" s="1" t="n">
         <v>-111.31</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -3425,10 +3425,10 @@
       <c r="A144" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B144" s="1" t="n">
         <v>80.9195</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144" s="1" t="n">
         <v>-103.1635</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -3442,10 +3442,10 @@
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B145" s="1" t="n">
         <v>75.7895</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145" s="1" t="n">
         <v>-103.1135</v>
       </c>
       <c r="D145" s="1" t="s">
@@ -3459,10 +3459,10 @@
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B146" s="1" t="n">
         <v>86.3695</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146" s="1" t="n">
         <v>-103.2535</v>
       </c>
       <c r="D146" s="1" t="s">
@@ -3476,10 +3476,10 @@
       <c r="A147" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B147" s="1" t="n">
         <v>91.7995</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147" s="1" t="n">
         <v>-103.2935</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -3493,10 +3493,10 @@
       <c r="A148" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B148" s="1" t="n">
         <v>67.77</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148" s="1" t="n">
         <v>-75.31</v>
       </c>
       <c r="D148" s="1" t="s">
@@ -3510,10 +3510,10 @@
       <c r="A149" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B149" s="1" t="n">
         <v>96.94</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149" s="1" t="n">
         <v>-72.35</v>
       </c>
       <c r="D149" s="1" t="s">
@@ -3527,10 +3527,10 @@
       <c r="A150" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B150" s="1" t="n">
         <v>85.71</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150" s="1" t="n">
         <v>-87.68</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -3544,10 +3544,10 @@
       <c r="A151" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B151" s="0" t="n">
+      <c r="B151" s="1" t="n">
         <v>76.11</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151" s="1" t="n">
         <v>-67.03</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -3561,10 +3561,10 @@
       <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B152" s="0" t="n">
+      <c r="B152" s="1" t="n">
         <v>61.61</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C152" s="1" t="n">
         <v>-100.1</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -3578,10 +3578,10 @@
       <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B153" s="0" t="n">
+      <c r="B153" s="1" t="n">
         <v>130.24</v>
       </c>
-      <c r="C153" s="0" t="n">
+      <c r="C153" s="1" t="n">
         <v>-60.407</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -3595,10 +3595,10 @@
       <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B154" s="0" t="n">
+      <c r="B154" s="1" t="n">
         <v>85.85</v>
       </c>
-      <c r="C154" s="0" t="n">
+      <c r="C154" s="1" t="n">
         <v>-64.07</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -3612,10 +3612,10 @@
       <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B155" s="0" t="n">
+      <c r="B155" s="1" t="n">
         <v>79.9</v>
       </c>
-      <c r="C155" s="0" t="n">
+      <c r="C155" s="1" t="n">
         <v>-62.14</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -3629,10 +3629,10 @@
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B156" s="0" t="n">
+      <c r="B156" s="1" t="n">
         <v>123.63</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C156" s="1" t="n">
         <v>-88.54</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -3646,10 +3646,10 @@
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B157" s="0" t="n">
+      <c r="B157" s="1" t="n">
         <v>121.18</v>
       </c>
-      <c r="C157" s="0" t="n">
+      <c r="C157" s="1" t="n">
         <v>-83.23</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -3663,10 +3663,10 @@
       <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B158" s="0" t="n">
+      <c r="B158" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="C158" s="0" t="n">
+      <c r="C158" s="1" t="n">
         <v>-109.79</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -3680,10 +3680,10 @@
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B159" s="0" t="n">
+      <c r="B159" s="1" t="n">
         <v>64.38</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C159" s="1" t="n">
         <v>-107.33</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -3697,10 +3697,10 @@
       <c r="A160" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B160" s="0" t="n">
+      <c r="B160" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="C160" s="0" t="n">
+      <c r="C160" s="1" t="n">
         <v>-103.51</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -3714,10 +3714,10 @@
       <c r="A161" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B161" s="0" t="n">
+      <c r="B161" s="1" t="n">
         <v>65.82</v>
       </c>
-      <c r="C161" s="0" t="n">
+      <c r="C161" s="1" t="n">
         <v>-90.45</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -3731,10 +3731,10 @@
       <c r="A162" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B162" s="0" t="n">
+      <c r="B162" s="1" t="n">
         <v>126.938</v>
       </c>
-      <c r="C162" s="0" t="n">
+      <c r="C162" s="1" t="n">
         <v>-65.884</v>
       </c>
       <c r="D162" s="1" t="s">
@@ -3748,10 +3748,10 @@
       <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B163" s="0" t="n">
+      <c r="B163" s="1" t="n">
         <v>126.938</v>
       </c>
-      <c r="C163" s="0" t="n">
+      <c r="C163" s="1" t="n">
         <v>-67.789</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -3765,10 +3765,10 @@
       <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B164" s="0" t="n">
+      <c r="B164" s="1" t="n">
         <v>58.1</v>
       </c>
-      <c r="C164" s="0" t="n">
+      <c r="C164" s="1" t="n">
         <v>-80.24</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -3782,10 +3782,10 @@
       <c r="A165" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B165" s="0" t="n">
+      <c r="B165" s="1" t="n">
         <v>61.99</v>
       </c>
-      <c r="C165" s="0" t="n">
+      <c r="C165" s="1" t="n">
         <v>-80.25</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -3799,10 +3799,10 @@
       <c r="A166" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B166" s="0" t="n">
+      <c r="B166" s="1" t="n">
         <v>58.14</v>
       </c>
-      <c r="C166" s="0" t="n">
+      <c r="C166" s="1" t="n">
         <v>-82.27</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -3816,10 +3816,10 @@
       <c r="A167" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B167" s="0" t="n">
+      <c r="B167" s="1" t="n">
         <v>62.01</v>
       </c>
-      <c r="C167" s="0" t="n">
+      <c r="C167" s="1" t="n">
         <v>-82.3</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -3833,10 +3833,10 @@
       <c r="A168" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B168" s="0" t="n">
+      <c r="B168" s="1" t="n">
         <v>58.14</v>
       </c>
-      <c r="C168" s="0" t="n">
+      <c r="C168" s="1" t="n">
         <v>-84.36</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -3850,10 +3850,10 @@
       <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B169" s="0" t="n">
+      <c r="B169" s="1" t="n">
         <v>62.03</v>
       </c>
-      <c r="C169" s="0" t="n">
+      <c r="C169" s="1" t="n">
         <v>-84.3</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -3867,10 +3867,10 @@
       <c r="A170" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B170" s="0" t="n">
+      <c r="B170" s="1" t="n">
         <v>83.24</v>
       </c>
-      <c r="C170" s="0" t="n">
+      <c r="C170" s="1" t="n">
         <v>-64.03</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -3884,10 +3884,10 @@
       <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B171" s="0" t="n">
+      <c r="B171" s="1" t="n">
         <v>120.63</v>
       </c>
-      <c r="C171" s="0" t="n">
+      <c r="C171" s="1" t="n">
         <v>-81.15</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -3901,10 +3901,10 @@
       <c r="A172" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B172" s="0" t="n">
+      <c r="B172" s="1" t="n">
         <v>119.78</v>
       </c>
-      <c r="C172" s="0" t="n">
+      <c r="C172" s="1" t="n">
         <v>-127.66</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -3918,10 +3918,10 @@
       <c r="A173" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B173" s="0" t="n">
+      <c r="B173" s="1" t="n">
         <v>119.74</v>
       </c>
-      <c r="C173" s="0" t="n">
+      <c r="C173" s="1" t="n">
         <v>-125.64</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -3935,10 +3935,10 @@
       <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B174" s="0" t="n">
+      <c r="B174" s="1" t="n">
         <v>115.89</v>
       </c>
-      <c r="C174" s="0" t="n">
+      <c r="C174" s="1" t="n">
         <v>-125.65</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -3952,10 +3952,10 @@
       <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B175" s="0" t="n">
+      <c r="B175" s="1" t="n">
         <v>62.01</v>
       </c>
-      <c r="C175" s="0" t="n">
+      <c r="C175" s="1" t="n">
         <v>-86.43</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -3969,10 +3969,10 @@
       <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B176" s="0" t="n">
+      <c r="B176" s="1" t="n">
         <v>95.63</v>
       </c>
-      <c r="C176" s="0" t="n">
+      <c r="C176" s="1" t="n">
         <v>-101.88</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -3986,10 +3986,10 @@
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B177" s="0" t="n">
+      <c r="B177" s="1" t="n">
         <v>58.28</v>
       </c>
-      <c r="C177" s="0" t="n">
+      <c r="C177" s="1" t="n">
         <v>-119.88</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -4003,10 +4003,10 @@
       <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B178" s="0" t="n">
+      <c r="B178" s="1" t="n">
         <v>118.14</v>
       </c>
-      <c r="C178" s="0" t="n">
+      <c r="C178" s="1" t="n">
         <v>-73.47</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -4020,10 +4020,10 @@
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B179" s="0" t="n">
+      <c r="B179" s="1" t="n">
         <v>118.14</v>
       </c>
-      <c r="C179" s="0" t="n">
+      <c r="C179" s="1" t="n">
         <v>-75.97</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -4037,10 +4037,10 @@
       <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B180" s="0" t="n">
+      <c r="B180" s="1" t="n">
         <v>118.09</v>
       </c>
-      <c r="C180" s="0" t="n">
+      <c r="C180" s="1" t="n">
         <v>-78.27</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -4054,10 +4054,10 @@
       <c r="A181" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B181" s="0" t="n">
+      <c r="B181" s="1" t="n">
         <v>124.79</v>
       </c>
-      <c r="C181" s="0" t="n">
+      <c r="C181" s="1" t="n">
         <v>-121.26</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -4071,10 +4071,10 @@
       <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B182" s="0" t="n">
+      <c r="B182" s="1" t="n">
         <v>125.365</v>
       </c>
-      <c r="C182" s="0" t="n">
+      <c r="C182" s="1" t="n">
         <v>-113.495</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -4088,10 +4088,10 @@
       <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B183" s="0" t="n">
+      <c r="B183" s="1" t="n">
         <v>124.37</v>
       </c>
-      <c r="C183" s="0" t="n">
+      <c r="C183" s="1" t="n">
         <v>-117.27</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -4105,10 +4105,10 @@
       <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B184" s="0" t="n">
+      <c r="B184" s="1" t="n">
         <v>122.78</v>
       </c>
-      <c r="C184" s="0" t="n">
+      <c r="C184" s="1" t="n">
         <v>-121.26</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -4122,10 +4122,10 @@
       <c r="A185" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B185" s="0" t="n">
+      <c r="B185" s="1" t="n">
         <v>129.621</v>
       </c>
-      <c r="C185" s="0" t="n">
+      <c r="C185" s="1" t="n">
         <v>-97.126</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -4139,10 +4139,10 @@
       <c r="A186" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B186" s="0" t="n">
+      <c r="B186" s="1" t="n">
         <v>112.46</v>
       </c>
-      <c r="C186" s="0" t="n">
+      <c r="C186" s="1" t="n">
         <v>-85.823</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -4156,10 +4156,10 @@
       <c r="A187" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B187" s="0" t="n">
+      <c r="B187" s="1" t="n">
         <v>112.474</v>
       </c>
-      <c r="C187" s="0" t="n">
+      <c r="C187" s="1" t="n">
         <v>-88.12</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -4173,10 +4173,10 @@
       <c r="A188" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B188" s="0" t="n">
+      <c r="B188" s="1" t="n">
         <v>118.49</v>
       </c>
-      <c r="C188" s="0" t="n">
+      <c r="C188" s="1" t="n">
         <v>-88.16</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -4190,10 +4190,10 @@
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B189" s="0" t="n">
+      <c r="B189" s="1" t="n">
         <v>136.971</v>
       </c>
-      <c r="C189" s="0" t="n">
+      <c r="C189" s="1" t="n">
         <v>-99.92</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -4207,10 +4207,10 @@
       <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B190" s="0" t="n">
+      <c r="B190" s="1" t="n">
         <v>118.47</v>
       </c>
-      <c r="C190" s="0" t="n">
+      <c r="C190" s="1" t="n">
         <v>-90.46</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -4224,10 +4224,10 @@
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B191" s="0" t="n">
+      <c r="B191" s="1" t="n">
         <v>56.6</v>
       </c>
-      <c r="C191" s="0" t="n">
+      <c r="C191" s="1" t="n">
         <v>-95.11</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -4241,10 +4241,10 @@
       <c r="A192" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B192" s="0" t="n">
+      <c r="B192" s="1" t="n">
         <v>107.72</v>
       </c>
-      <c r="C192" s="0" t="n">
+      <c r="C192" s="1" t="n">
         <v>-127.16</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -4258,27 +4258,27 @@
       <c r="A193" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B193" s="0" t="n">
-        <v>142.178</v>
-      </c>
-      <c r="C193" s="0" t="n">
+      <c r="B193" s="1" t="n">
+        <v>141.416</v>
+      </c>
+      <c r="C193" s="1" t="n">
         <v>-97.761</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E193" s="1" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B194" s="0" t="n">
+      <c r="B194" s="1" t="n">
         <v>70.78</v>
       </c>
-      <c r="C194" s="0" t="n">
+      <c r="C194" s="1" t="n">
         <v>-96.21</v>
       </c>
       <c r="D194" s="1" t="s">
@@ -4292,10 +4292,10 @@
       <c r="A195" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B195" s="0" t="n">
+      <c r="B195" s="1" t="n">
         <v>70.78</v>
       </c>
-      <c r="C195" s="0" t="n">
+      <c r="C195" s="1" t="n">
         <v>-99.66</v>
       </c>
       <c r="D195" s="1" t="s">
@@ -4309,10 +4309,10 @@
       <c r="A196" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B196" s="0" t="n">
+      <c r="B196" s="1" t="n">
         <v>122.36</v>
       </c>
-      <c r="C196" s="0" t="n">
+      <c r="C196" s="1" t="n">
         <v>-117.3</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -4326,10 +4326,10 @@
       <c r="A197" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B197" s="0" t="n">
+      <c r="B197" s="1" t="n">
         <v>138.114</v>
       </c>
-      <c r="C197" s="0" t="n">
+      <c r="C197" s="1" t="n">
         <v>-92.554</v>
       </c>
       <c r="D197" s="1" t="s">
@@ -4343,10 +4343,10 @@
       <c r="A198" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B198" s="0" t="n">
+      <c r="B198" s="1" t="n">
         <v>136.844</v>
       </c>
-      <c r="C198" s="0" t="n">
+      <c r="C198" s="1" t="n">
         <v>-104.365</v>
       </c>
       <c r="D198" s="1" t="s">
@@ -4360,10 +4360,10 @@
       <c r="A199" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B199" s="0" t="n">
+      <c r="B199" s="1" t="n">
         <v>118.413</v>
       </c>
-      <c r="C199" s="0" t="n">
+      <c r="C199" s="1" t="n">
         <v>-85.95</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -4377,10 +4377,10 @@
       <c r="A200" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B200" s="0" t="n">
+      <c r="B200" s="1" t="n">
         <v>138.352</v>
       </c>
-      <c r="C200" s="0" t="n">
+      <c r="C200" s="1" t="n">
         <v>-106.651</v>
       </c>
       <c r="D200" s="1" t="s">
@@ -4394,10 +4394,10 @@
       <c r="A201" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B201" s="0" t="n">
+      <c r="B201" s="1" t="n">
         <v>119.064</v>
       </c>
-      <c r="C201" s="0" t="n">
+      <c r="C201" s="1" t="n">
         <v>-61.058</v>
       </c>
       <c r="D201" s="1" t="s">
@@ -4411,10 +4411,10 @@
       <c r="A202" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B202" s="0" t="n">
+      <c r="B202" s="1" t="n">
         <v>145.861</v>
       </c>
-      <c r="C202" s="0" t="n">
+      <c r="C202" s="1" t="n">
         <v>-102.333</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -4428,10 +4428,10 @@
       <c r="A203" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B203" s="0" t="n">
+      <c r="B203" s="1" t="n">
         <v>58.48</v>
       </c>
-      <c r="C203" s="0" t="n">
+      <c r="C203" s="1" t="n">
         <v>-113.955</v>
       </c>
       <c r="D203" s="1" t="s">
@@ -4445,10 +4445,10 @@
       <c r="A204" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B204" s="0" t="n">
+      <c r="B204" s="1" t="n">
         <v>113.02</v>
       </c>
-      <c r="C204" s="0" t="n">
+      <c r="C204" s="1" t="n">
         <v>-114.51</v>
       </c>
       <c r="D204" s="1" t="s">
@@ -4462,10 +4462,10 @@
       <c r="A205" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B205" s="0" t="n">
+      <c r="B205" s="1" t="n">
         <v>92.06</v>
       </c>
-      <c r="C205" s="0" t="n">
+      <c r="C205" s="1" t="n">
         <v>-73.43</v>
       </c>
       <c r="D205" s="1" t="s">
@@ -4479,10 +4479,10 @@
       <c r="A206" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B206" s="0" t="n">
+      <c r="B206" s="1" t="n">
         <v>77.02</v>
       </c>
-      <c r="C206" s="0" t="n">
+      <c r="C206" s="1" t="n">
         <v>-78.1</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -4496,10 +4496,10 @@
       <c r="A207" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B207" s="0" t="n">
+      <c r="B207" s="1" t="n">
         <v>124.5925</v>
       </c>
-      <c r="C207" s="0" t="n">
+      <c r="C207" s="1" t="n">
         <v>-79.14</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -4513,10 +4513,10 @@
       <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B208" s="0" t="n">
+      <c r="B208" s="1" t="n">
         <v>138.749</v>
       </c>
-      <c r="C208" s="0" t="n">
+      <c r="C208" s="1" t="n">
         <v>-88.998</v>
       </c>
       <c r="D208" s="1" t="s">
@@ -4530,10 +4530,10 @@
       <c r="A209" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B209" s="0" t="n">
+      <c r="B209" s="1" t="n">
         <v>94.73</v>
       </c>
-      <c r="C209" s="0" t="n">
+      <c r="C209" s="1" t="n">
         <v>-89.11</v>
       </c>
       <c r="D209" s="1" t="s">
@@ -4547,10 +4547,10 @@
       <c r="A210" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B210" s="0" t="n">
+      <c r="B210" s="1" t="n">
         <v>92.5</v>
       </c>
-      <c r="C210" s="0" t="n">
+      <c r="C210" s="1" t="n">
         <v>-121.175</v>
       </c>
       <c r="D210" s="1" t="s">
@@ -4564,10 +4564,10 @@
       <c r="A211" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B211" s="0" t="n">
+      <c r="B211" s="1" t="n">
         <v>153.96</v>
       </c>
-      <c r="C211" s="0" t="n">
+      <c r="C211" s="1" t="n">
         <v>-96.71</v>
       </c>
       <c r="D211" s="1" t="s">
@@ -4581,10 +4581,10 @@
       <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B212" s="0" t="n">
+      <c r="B212" s="1" t="n">
         <v>121.1595</v>
       </c>
-      <c r="C212" s="0" t="n">
+      <c r="C212" s="1" t="n">
         <v>-64.995</v>
       </c>
       <c r="D212" s="1" t="s">
@@ -4598,10 +4598,10 @@
       <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B213" s="0" t="n">
+      <c r="B213" s="1" t="n">
         <v>83.71</v>
       </c>
-      <c r="C213" s="0" t="n">
+      <c r="C213" s="1" t="n">
         <v>-131.8</v>
       </c>
       <c r="D213" s="1" t="s">
@@ -4615,10 +4615,10 @@
       <c r="A214" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B214" s="0" t="n">
+      <c r="B214" s="1" t="n">
         <v>64.26</v>
       </c>
-      <c r="C214" s="0" t="n">
+      <c r="C214" s="1" t="n">
         <v>-73.97</v>
       </c>
       <c r="D214" s="1" t="s">
